--- a/Часть 1,2 (выявление требований, их приоритет).xlsx
+++ b/Часть 1,2 (выявление требований, их приоритет).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glazk\OneDrive\Рабочий стол\[ДОМАШНИЕ ЗАДАНИЯ]\Программная инженерия\ЛР 5 (ТЗ)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{212DA07F-ED81-4B2B-8CC3-6CEFF3F2A084}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C70DCA-E1EF-4B95-935A-1D113F618BC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="61">
   <si>
     <t>№</t>
   </si>
@@ -186,9 +186,6 @@
     <t>Важно</t>
   </si>
   <si>
-    <t>Не важно</t>
-  </si>
-  <si>
     <t>Срочно</t>
   </si>
   <si>
@@ -202,6 +199,15 @@
   </si>
   <si>
     <t>Минимальный</t>
+  </si>
+  <si>
+    <t>Т20</t>
+  </si>
+  <si>
+    <t>Средне</t>
+  </si>
+  <si>
+    <t>Изменить статус нового оповещения ("Обычное", "Срочно")</t>
   </si>
 </sst>
 </file>
@@ -229,6 +235,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -256,16 +263,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -293,11 +302,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="65"/>
       </patternFill>
@@ -314,8 +318,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="31">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -365,15 +375,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -446,8 +447,188 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
         <color rgb="FFB2B2B2"/>
-      </left>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FFB2B2B2"/>
       </right>
@@ -458,9 +639,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -468,68 +647,12 @@
         <color theme="2" tint="-0.749992370372631"/>
       </top>
       <bottom style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </top>
-      <bottom style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </left>
-      <right style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </left>
-      <right style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </top>
-      <bottom style="thin">
         <color theme="2" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="2" tint="-0.499984740745262"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -542,9 +665,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
         <color theme="2" tint="-0.499984740745262"/>
-      </left>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -555,155 +689,104 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </top>
-      <bottom style="thin">
-        <color theme="2" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
       <top style="thin">
         <color theme="2" tint="-0.499984740745262"/>
       </top>
       <bottom style="thin">
-        <color theme="2" tint="-0.499984740745262"/>
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color theme="2" tint="-0.749992370372631"/>
       </left>
       <right style="thin">
-        <color theme="1"/>
+        <color theme="2" tint="-0.749992370372631"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color theme="2" tint="-0.499984740745262"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color theme="2" tint="-0.749992370372631"/>
       </left>
       <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="1"/>
+        <color theme="2" tint="-0.749992370372631"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color theme="2" tint="-0.749992370372631"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-0.499984740745262"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
+        <color theme="2" tint="-0.749992370372631"/>
       </right>
       <top style="thin">
-        <color theme="1"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color theme="2" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="2" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-0.499984740745262"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
+        <color theme="2" tint="-0.749992370372631"/>
       </bottom>
       <diagonal/>
     </border>
@@ -713,12 +796,12 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -726,225 +809,237 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="17" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="19" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="20" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="17" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="17" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="18" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="19" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="20" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="21" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="21" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="22" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="27" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="28" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="27" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="29" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="30" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="24" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="25" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="26" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="24" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="27" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="28" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="29" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="30" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="36" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="37" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="20% — акцент3" xfId="5" builtinId="38"/>
-    <cellStyle name="40% — акцент3" xfId="6" builtinId="39"/>
-    <cellStyle name="60% — акцент3" xfId="7" builtinId="40"/>
+    <cellStyle name="20% — акцент1" xfId="7" builtinId="30"/>
+    <cellStyle name="20% — акцент3" xfId="4" builtinId="38"/>
+    <cellStyle name="40% — акцент3" xfId="5" builtinId="39"/>
+    <cellStyle name="60% — акцент3" xfId="6" builtinId="40"/>
     <cellStyle name="Нейтральный" xfId="3" builtinId="28"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Плохой" xfId="2" builtinId="27"/>
-    <cellStyle name="Примечание" xfId="4" builtinId="10"/>
     <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1223,15 +1318,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="59" customWidth="1"/>
     <col min="2" max="2" width="34.5546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.21875" style="1" customWidth="1"/>
     <col min="4" max="4" width="18.44140625" style="1" customWidth="1"/>
@@ -1244,511 +1339,535 @@
     <col min="11" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:10" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="14" t="s">
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="69" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="20" t="s">
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" s="26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J2" s="46" t="s">
+      <c r="J4" s="14" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="37" t="s">
+    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="75" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="15" t="s">
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I5" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J3" s="70" t="s">
+      <c r="J5" s="14" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="15" t="s">
+    <row r="6" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="76" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="42"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J8" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="J4" s="49" t="s">
+    </row>
+    <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="43"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="28"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J10" s="12" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="15" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="28"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J11" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="J5" s="49" t="s">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="28"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J12" s="26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="28"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="J13" s="27" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="40" t="s">
+    <row r="14" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="I6" s="23" t="s">
+      <c r="D14" s="29"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I14" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="J6" s="48" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="57" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="H7" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="I7" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="J7" s="47" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="41"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="J8" s="70" t="s">
+      <c r="J14" s="16" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="63" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="64" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="65"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="I9" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="J9" s="50" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="66" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="67" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="I10" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="J10" s="47" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="54" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="59" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="I11" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="J11" s="70" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="I12" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="J12" s="70" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="54" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="59" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="I13" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="J13" s="71" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="68" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="69" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="I14" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="J14" s="51" t="s">
-        <v>57</v>
-      </c>
-    </row>
     <row r="15" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="59" t="s">
         <v>37</v>
       </c>
       <c r="B15" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="61" t="s">
+      <c r="C15" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="20" t="s">
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I15" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="I15" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="J15" s="47" t="s">
-        <v>58</v>
+      <c r="J15" s="12" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="59" t="s">
         <v>38</v>
       </c>
       <c r="B16" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="61" t="s">
+      <c r="C16" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="15" t="s">
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="I16" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="J16" s="70" t="s">
-        <v>56</v>
+      <c r="I16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J16" s="26" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="62" t="s">
+      <c r="C17" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="10" t="s">
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I17" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="I17" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="J17" s="72" t="s">
+      <c r="J17" s="47" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J19" s="26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J20" s="26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="61" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="43" t="s">
+      <c r="B21" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I18" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="J18" s="46" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="I19" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="J19" s="70" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="24"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="23" t="s">
+      <c r="D21" s="36"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I21" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="I20" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="J20" s="48" t="s">
-        <v>58</v>
+      <c r="J21" s="13" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="D10:D14"/>
-    <mergeCell ref="F7:F17"/>
-    <mergeCell ref="D15:E17"/>
-    <mergeCell ref="D18:F20"/>
-    <mergeCell ref="G7:G20"/>
-    <mergeCell ref="D7:D9"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="D2:G6"/>
     <mergeCell ref="E7:E14"/>
+    <mergeCell ref="D10:D14"/>
+    <mergeCell ref="F7:F18"/>
+    <mergeCell ref="D15:E18"/>
+    <mergeCell ref="D19:F21"/>
+    <mergeCell ref="G7:G21"/>
+    <mergeCell ref="D7:D9"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
